--- a/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17A9BEF1-86C2-45B3-BDF6-775CA932DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5F5335-9544-4B92-A85F-128A954C0D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C3BDB9D-8A0E-4B22-8A12-4EC27F65017E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9492AC59-4C0C-4782-9465-F6F9B68A7B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,81 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>97,88%</t>
   </si>
   <si>
@@ -98,9 +167,6 @@
     <t>98,76%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2,12%</t>
   </si>
   <si>
@@ -128,49 +194,55 @@
     <t>5,87%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -204,78 +276,6 @@
   </si>
   <si>
     <t>5,34%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
   </si>
   <si>
     <t>97,56%</t>
@@ -721,7 +721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108F7C1B-9FB8-43B5-926A-32AE40DE7BD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1279A5-36B4-4BEB-B882-6A3DC4E32DB4}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -839,10 +839,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>100524</v>
+        <v>2324</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -854,85 +854,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>54638</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>7</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3918</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>191</v>
-      </c>
-      <c r="N4" s="7">
-        <v>155163</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2174</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2422</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
-      <c r="N5" s="7">
-        <v>4596</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -941,54 +941,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>102698</v>
+        <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>57060</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>198</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>159759</v>
+        <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1000,13 +1000,13 @@
         <v>41965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -1015,13 +1015,13 @@
         <v>30291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -1030,19 +1030,19 @@
         <v>72255</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1066,13 +1066,13 @@
         <v>1608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1081,13 +1081,13 @@
         <v>1608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1102,13 +1102,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1117,13 +1117,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1132,117 +1132,117 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D10" s="7">
-        <v>54761</v>
+        <v>100524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>56484</v>
+        <v>54638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="N10" s="7">
-        <v>111245</v>
+        <v>155163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1581</v>
+        <v>2174</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2422</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4596</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1581</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1251,153 +1251,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>56342</v>
+        <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>56484</v>
+        <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="N12" s="7">
-        <v>112826</v>
+        <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>2324</v>
+        <v>61092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="7">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7">
+        <v>54339</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>126</v>
+      </c>
+      <c r="N13" s="7">
+        <v>115431</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>7</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3918</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,150 +1406,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>2324</v>
+        <v>63851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="N15" s="7">
-        <v>3918</v>
+        <v>119360</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>61092</v>
+        <v>54761</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>54339</v>
+        <v>56484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>115431</v>
+        <v>111245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2759</v>
+        <v>1581</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
-        <v>1170</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
       <c r="N17" s="7">
-        <v>3929</v>
+        <v>1581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>79</v>
@@ -1561,49 +1561,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>63851</v>
+        <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I18" s="7">
-        <v>55509</v>
+        <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N18" s="7">
-        <v>119360</v>
+        <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,7 +1662,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -1722,13 +1722,13 @@
         <v>267180</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -1737,13 +1737,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>577</v>
@@ -1752,13 +1752,13 @@
         <v>469726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5F5335-9544-4B92-A85F-128A954C0D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A082028-5B68-4185-9718-2CB7DD96828D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9492AC59-4C0C-4782-9465-F6F9B68A7B7C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECD934-186A-442B-9D17-D360599E76AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
   <si>
     <t>Menores según si tienen mucho o muchísimo cansancio para disfrutar de las cosas que le gustan (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -68,6 +68,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -86,172 +104,169 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
     <t>96,18%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>82,87%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>92,64%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>92,06%</t>
+    <t>92,31%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>90,1%</t>
+    <t>90,34%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -260,28 +275,34 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,15%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>98,96%</t>
@@ -290,46 +311,16 @@
     <t>97,43%</t>
   </si>
   <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -340,7 +331,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,39 +427,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -520,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -631,13 +622,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -646,6 +630,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -710,19 +701,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1279A5-36B4-4BEB-B882-6A3DC4E32DB4}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA595E1-C335-4AE6-9C31-390F79703F93}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -839,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2324</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -854,34 +865,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3918</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -890,10 +901,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2324</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -905,34 +916,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -947,13 +958,13 @@
         <v>2324</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -962,13 +973,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -977,13 +988,13 @@
         <v>3918</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -994,49 +1005,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>41965</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>30291</v>
+        <v>1608</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>72255</v>
+        <v>1608</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1045,49 +1056,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>41965</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>1608</v>
+        <v>30291</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N8" s="7">
-        <v>1608</v>
+        <v>72255</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1102,13 +1113,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1117,13 +1128,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1132,13 +1143,13 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>100524</v>
+        <v>2174</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1164,10 +1175,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>54638</v>
+        <v>2422</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -1179,10 +1190,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>155163</v>
+        <v>4596</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1200,10 +1211,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>2174</v>
+        <v>100524</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
@@ -1215,10 +1226,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>2422</v>
+        <v>54638</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
@@ -1230,10 +1241,10 @@
         <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="N11" s="7">
-        <v>4596</v>
+        <v>155163</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
@@ -1257,13 +1268,13 @@
         <v>102698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -1272,13 +1283,13 @@
         <v>57060</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -1287,13 +1298,13 @@
         <v>159759</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,10 +1315,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>61092</v>
+        <v>2759</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>53</v>
@@ -1319,25 +1330,25 @@
         <v>55</v>
       </c>
       <c r="H13" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>54339</v>
+        <v>1170</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>115431</v>
+        <v>3929</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>58</v>
@@ -1355,10 +1366,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7">
-        <v>2759</v>
+        <v>61092</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>61</v>
@@ -1370,25 +1381,25 @@
         <v>63</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I14" s="7">
-        <v>1170</v>
+        <v>54339</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="N14" s="7">
-        <v>3929</v>
+        <v>115431</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>66</v>
@@ -1412,13 +1423,13 @@
         <v>63851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -1427,13 +1438,13 @@
         <v>55509</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>131</v>
@@ -1442,13 +1453,13 @@
         <v>119360</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1470,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>54761</v>
+        <v>1581</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>56484</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>111245</v>
+        <v>1581</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,49 +1521,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>1581</v>
+        <v>54761</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>56484</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="N17" s="7">
-        <v>1581</v>
+        <v>111245</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,13 +1578,13 @@
         <v>56342</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>75</v>
@@ -1582,13 +1593,13 @@
         <v>56484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -1597,13 +1608,13 @@
         <v>112826</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,10 +1625,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>260665</v>
+        <v>6515</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>80</v>
@@ -1629,34 +1640,34 @@
         <v>82</v>
       </c>
       <c r="H19" s="7">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>197346</v>
+        <v>5200</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11715</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="7">
-        <v>561</v>
-      </c>
-      <c r="N19" s="7">
-        <v>458011</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,49 +1676,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>6515</v>
+        <v>260665</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>262</v>
+      </c>
+      <c r="I20" s="7">
+        <v>197346</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5200</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="7">
+        <v>561</v>
+      </c>
+      <c r="N20" s="7">
+        <v>458011</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="7">
-        <v>16</v>
-      </c>
-      <c r="N20" s="7">
-        <v>11715</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1733,13 @@
         <v>267180</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -1737,13 +1748,13 @@
         <v>202546</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>577</v>
@@ -1752,13 +1763,18 @@
         <v>469726</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A082028-5B68-4185-9718-2CB7DD96828D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8805BB-E51F-44D2-B873-9987F91B9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14ECD934-186A-442B-9D17-D360599E76AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B32E4D-5FD4-4F33-94BF-7DC55A7064E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
   <si>
     <t>Menores según si tienen mucho o muchísimo cansancio para disfrutar de las cosas que le gustan (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>76,75%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,82%</t>
@@ -113,13 +113,13 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>15,87%</t>
+    <t>19,48%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>7,36%</t>
+    <t>7,25%</t>
   </si>
   <si>
     <t>96,18%</t>
@@ -128,16 +128,16 @@
     <t>94,96%</t>
   </si>
   <si>
-    <t>84,13%</t>
+    <t>80,52%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,12%</t>
@@ -146,31 +146,31 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,85%</t>
+    <t>5,8%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>94,15%</t>
+    <t>94,2%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -179,70 +179,70 @@
     <t>95,76%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>8,34%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>91,66%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -251,7 +251,7 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>9,66%</t>
+    <t>10,65%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -260,13 +260,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>90,34%</t>
+    <t>89,35%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -275,49 +275,61 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>95,17%</t>
+    <t>94,69%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA595E1-C335-4AE6-9C31-390F79703F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02835B79-F676-4F53-A6D0-7029E26DB8A5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,10 +1661,10 @@
         <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -1661,13 +1673,13 @@
         <v>11715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1694,13 @@
         <v>260665</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>262</v>
@@ -1697,13 +1709,13 @@
         <v>197346</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>561</v>
@@ -1712,13 +1724,13 @@
         <v>458011</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,7 +1786,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8805BB-E51F-44D2-B873-9987F91B9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84B6A97-AF3B-4391-B147-3183BE354931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9B32E4D-5FD4-4F33-94BF-7DC55A7064E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6E1D1199-1FF1-490C-9BDD-BEBEC87B1CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>Menores según si tienen mucho o muchísimo cansancio para disfrutar de las cosas que le gustan (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,271 +65,250 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,28%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>14,85%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>63,75%</t>
+    <t>96,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -744,8 +723,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02835B79-F676-4F53-A6D0-7029E26DB8A5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F0FB58-9D61-4224-83A0-77F147FDA35C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -862,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1647</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -883,79 +862,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7">
-        <v>2324</v>
+        <v>29526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="N5" s="7">
-        <v>3918</v>
+        <v>77547</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -964,153 +943,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>2324</v>
+        <v>31173</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>48021</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>3918</v>
+        <v>79194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2355</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1608</v>
+        <v>2246</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>1608</v>
+        <v>4601</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>41965</v>
+        <v>51278</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="I8" s="7">
-        <v>30291</v>
+        <v>100531</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="N8" s="7">
-        <v>72255</v>
+        <v>151809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,153 +1098,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>41965</v>
+        <v>53633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="I9" s="7">
-        <v>31899</v>
+        <v>102777</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="N9" s="7">
-        <v>73863</v>
+        <v>156410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1147</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>2174</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
       <c r="I10" s="7">
-        <v>2422</v>
+        <v>2828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4596</v>
+        <v>3975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>100524</v>
+        <v>71036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>54638</v>
+        <v>62150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>155163</v>
+        <v>133186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1274,153 +1253,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>102698</v>
+        <v>72183</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>57060</v>
+        <v>64978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="N12" s="7">
-        <v>159759</v>
+        <v>137161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2759</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1170</v>
+        <v>1498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>3929</v>
+        <v>1498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7">
-        <v>61092</v>
+        <v>53483</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>54339</v>
+        <v>54873</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N14" s="7">
-        <v>115431</v>
+        <v>108356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,153 +1408,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>63851</v>
+        <v>53483</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7">
-        <v>55509</v>
+        <v>56371</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>119360</v>
+        <v>109854</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>1581</v>
+        <v>5149</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>6572</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>1581</v>
+        <v>11722</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="D17" s="7">
-        <v>54761</v>
+        <v>205323</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="I17" s="7">
-        <v>56484</v>
+        <v>265575</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>143</v>
+        <v>561</v>
       </c>
       <c r="N17" s="7">
-        <v>111245</v>
+        <v>470897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,217 +1563,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D18" s="7">
-        <v>56342</v>
+        <v>210472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="I18" s="7">
-        <v>56484</v>
+        <v>272147</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>577</v>
       </c>
       <c r="N18" s="7">
-        <v>112826</v>
+        <v>482619</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6515</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7">
-        <v>8</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5200</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="7">
-        <v>16</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11715</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>299</v>
-      </c>
-      <c r="D20" s="7">
-        <v>260665</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="7">
-        <v>262</v>
-      </c>
-      <c r="I20" s="7">
-        <v>197346</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="7">
-        <v>561</v>
-      </c>
-      <c r="N20" s="7">
-        <v>458011</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>307</v>
-      </c>
-      <c r="D21" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>270</v>
-      </c>
-      <c r="I21" s="7">
-        <v>202546</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>577</v>
-      </c>
-      <c r="N21" s="7">
-        <v>469726</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
